--- a/Bow-tie_CAUSES & standardised vocabularies.xlsx
+++ b/Bow-tie_CAUSES & standardised vocabularies.xlsx
@@ -5,16 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="metadata" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="CAUSES_Vocabulary1-Activities" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="CAUSES_Vocabulary2-Pressures" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="CAUSES_Vocabulary1-Activities" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="CAUSES_Vocabulary2-Pressures" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'CAUSES_Vocabulary1-Activities'!$A$2:$G$55</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'CAUSES_Vocabulary2-Pressures'!$A$2:$G$38</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'CAUSES_Vocabulary1-Activities'!$A$2:$G$55</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'CAUSES_Vocabulary2-Pressures'!$A$2:$G$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -88,7 +87,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -152,127 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="352">
-  <si>
-    <t xml:space="preserve">File name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bow-tie_CAUSES &amp; standardised vocabularies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created/amended  by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anita Franco (IECS); Tasman Crowe (UCD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File created within WP5 of the EU project MARBEFES to provide standardised vocabularies for the CAUSES of biodiversity change (further distinguished into Activities and Pressures) as used in Bow-ties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File content:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spreadsheet name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAUSES_Vocabulary1-Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standardised vocabulary for human ACTIVITIES in/affecting the marine environment. 
-• The terms for activities are identified by name and alphanumerical ID (see columns 'Causes_1.Activities_name' and 'New ID#').
-• Activities are identified according to a hierarchycal classification: (the increasing Level # indicated an increasing detail at which the element is defined):
-Level 1: Theme (often corresponding to Sector, e.g., Tourism, Renewable energy generation);
-Level 2: Generic activity (within a sector/theme, defined in general terms);
-Level 3: Specific activity (within a generic activity, defined in more specific terms; Not an exhaustive list).
-Additional levels may be added for activities specified with more detail.
-Where the term/variable in the vocabulary expresses an indicator to measure the intensity of the activity (defined at a certain hierarchical level), the term '(indicator)' is added to the activity level and ID# (not an exhaustive list of indicators).
-• The basis for the vocabulary is the MSFD list of activities. Variables from Higher-level scenarios defined in Land2Sea project have also been integrated/harmonised in the vocabulary (see column 'Source'). 
-• The hierarchical relations between the different activities are indicated in column 'ID# and relations' (==: equal to...; &lt;&lt;: included in / subset of...; &gt;&gt;: includes...)
-• Column 'Remarks' provides additional explanation where needed.
-• Column 'Land2Sea' provides original terms as used in Land2Sea high -level scenarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAUSES_Vocabulary2-Pressures</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Standardised vocabulary for anthropogenic PRESSURES through whch human activities affecting the marine ecosystem. 
-• The terms for pressures are identified by name and alphanumerical ID (see columns 'Causes_2.Pressures_name' and 'New ID#' contain).
-• Pressures are identified according to a hierarchycal classification: (the increasing Level # indicated an increasing detail at which the element is defined):
-Level 1: Theme (summarysing the generic nature/agent of the pressure, e.g., biological, physical;
-Level 2: Generic pressure (within a theme, defined in general terms as the mechanism inducing  a state change in biodiversity; e.g. input/spread of invasive species</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">);
-Level 3: Specific pressure (within a generic pressure, defined in more specific terms; Not an exhaustive list);
-Additional levels may be added for pressures specified with more detail.
-Where the term/variable in the vocabulary expresses an indicator to measure the intensity of the pressure (defined at a certain hierarchical level), the term '(indicator)' is added to the pressure level and ID# (not an exhaustive list of indicators)
-• The basis for the vocabulary is the MSFD list of pressures. Variables from Higher-level scenarios defined in Land2Sea project have also been integrated/harmonised in the vocabulary (see column 'Source'). Climate change as also been added to the list. 
-• The hierarchical relations between the different pressures are indicated in column 'ID# and relations' (==: equal to...; &lt;&lt;: included in / subset of...; &gt;&gt;: includes...)
-• Column 'Remarks' provides additional explanation where needed.
-• Column 'Land2Sea' provides original terms as used in Land2Sea high -level scenarios.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CAUSES from BBT Bow-ties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This spreadsheet reports the causes of biodiversity change as indicated in the draft bow-ties (BTs) created by the BBTs in MARBEFES (March 2024) and harmonises them according to the standardised vocabularies above.
-• The elements indicated as causes in the draft BTs are reported in column 'Elements in draft BTs', with their source BT indicated in the column 'Source: BT generic theme (BBT#)'.
-• The elements from the draft BTs are categorised according to the standardised vocabularies for activities and pressures by reporting the term ID (as in 'New ID#' form the spreadsheets above).
-• Column 'Remarks' provides additional explanation where needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invasive species are a pressure when intended as the introduction, input, dispersion, spread of invasive species in the system, which may have consequences for biodiversity change/loss (e.g., resulting in the loss/decrease of native species (their population and/or fitness) hence predominance of invasive species in the community, as mediated by increased competition). However, it is also possible for 'Increase in invasive species' (specified or just in general) to be a central knot event in the BT, if this is one of the main concerns regarding the change in biodiversity (rather than their specific consequences on other part of the ecosystem).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example of Activities-Pressures links (marine environment, HELCOM)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="330">
   <si>
     <t xml:space="preserve">CAUSES of Biodiversity change: 1. Standardised vocabulary for ACTIVITIES</t>
   </si>
@@ -1305,11 +1184,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,13 +1213,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1349,8 +1227,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1371,23 +1250,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1460,80 +1330,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,52 +1489,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9236520</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1349640" y="9248760"/>
-          <a:ext cx="11251080" cy="6773400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -1867,151 +1671,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="136.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="9.06"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>45404</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:C14"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
     <tabColor rgb="FFBDD7EE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -2021,1117 +1686,1117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="73.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>72</v>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="8" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="F20" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="C21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="F22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="F23" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F24" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="F25" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="C26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="D26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="0" t="s">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="F27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="13" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="C28" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="F28" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>124</v>
+      <c r="F29" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>124</v>
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="F41" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="D42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="8" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="F43" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="G43" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="C50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>205</v>
+      <c r="F50" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>221</v>
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>225</v>
+      <c r="A54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>225</v>
+      <c r="A55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF2E75B6"/>
@@ -3156,7 +2821,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -3166,801 +2831,801 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="66.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="F8" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="F9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C10" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="15" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F11" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F12" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="G12" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="F13" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="F14" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="C15" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C16" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="F16" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>281</v>
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>281</v>
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>281</v>
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>281</v>
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>281</v>
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>281</v>
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>329</v>
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
